--- a/biology/Histoire de la zoologie et de la botanique/Gastón_Guzmán/Gastón_Guzmán.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gastón_Guzmán/Gastón_Guzmán.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gast%C3%B3n_Guzm%C3%A1n</t>
+          <t>Gastón_Guzmán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gastón Guzmán, né le 26 août 1932 à Xalapa et mort le 12 janvier 2016 dans la même ville[1], est un mycologue et anthropologue mexicain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gastón Guzmán, né le 26 août 1932 à Xalapa et mort le 12 janvier 2016 dans la même ville, est un mycologue et anthropologue mexicain.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gast%C3%B3n_Guzm%C3%A1n</t>
+          <t>Gastón_Guzmán</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est considéré comme l'autorité la plus éminente en ce qui concerne le genre Psilocybe[2]. Il a d'ailleurs publié un livre sur le sujet en 1977. Il est l'auteur de huit autres livres et de plus de 350 articles sur les champignons mexicains. Il était chercheur émérite à l'institut écologique de Xalapa où il a fondé le département et l'herbier de champignons. Il est également guide du « Mexican Mushroom Tours »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est considéré comme l'autorité la plus éminente en ce qui concerne le genre Psilocybe. Il a d'ailleurs publié un livre sur le sujet en 1977. Il est l'auteur de huit autres livres et de plus de 350 articles sur les champignons mexicains. Il était chercheur émérite à l'institut écologique de Xalapa où il a fondé le département et l'herbier de champignons. Il est également guide du « Mexican Mushroom Tours ».
 </t>
         </is>
       </c>
